--- a/artfynd/A 25367-2019.xlsx
+++ b/artfynd/A 25367-2019.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1742574</v>
+        <v>1432080</v>
       </c>
       <c r="B4" t="n">
-        <v>90673</v>
+        <v>86133</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,37 +930,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4377</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blodvaxskivling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hygrocybe coccinea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schaeff.) P.Kumm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Valsund, 700 m O om, Srm</t>
+          <t>Vällkärret, 100 m S om, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>607314.5897486788</v>
+        <v>607526.3003579092</v>
       </c>
       <c r="R4" t="n">
-        <v>6548662.16887419</v>
+        <v>6548630.034672366</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>gammal barrskog</t>
+          <t>blandskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1432080</v>
+        <v>5042702</v>
       </c>
       <c r="B5" t="n">
-        <v>86133</v>
+        <v>98519</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4377</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blodvaxskivling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hygrocybe coccinea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) P.Kumm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>607526.3003579092</v>
+        <v>607494.2253493589</v>
       </c>
       <c r="R5" t="n">
-        <v>6548630.034672366</v>
+        <v>6548689.331522608</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>blandskog</t>
+          <t>gles barrskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5042702</v>
+        <v>1742574</v>
       </c>
       <c r="B6" t="n">
-        <v>98519</v>
+        <v>90673</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,34 +1164,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Vällkärret, 100 m S om, Srm</t>
+          <t>Valsund, 700 m O om, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>607494.2253493589</v>
+        <v>607314.5897486788</v>
       </c>
       <c r="R6" t="n">
-        <v>6548689.331522608</v>
+        <v>6548662.16887419</v>
       </c>
       <c r="S6" t="n">
         <v>100</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>gles barrskog</t>
+          <t>gammal barrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>

--- a/artfynd/A 25367-2019.xlsx
+++ b/artfynd/A 25367-2019.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1432080</v>
+        <v>1742574</v>
       </c>
       <c r="B4" t="n">
-        <v>86133</v>
+        <v>90673</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,37 +930,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4377</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blodvaxskivling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hygrocybe coccinea</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schaeff.) P.Kumm.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Vällkärret, 100 m S om, Srm</t>
+          <t>Valsund, 700 m O om, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>607526.3003579092</v>
+        <v>607314.5897486788</v>
       </c>
       <c r="R4" t="n">
-        <v>6548630.034672366</v>
+        <v>6548662.16887419</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>blandskog</t>
+          <t>gammal barrskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5042702</v>
+        <v>1432080</v>
       </c>
       <c r="B5" t="n">
-        <v>98519</v>
+        <v>86133</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>4377</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Blodvaxskivling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hygrocybe coccinea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Schaeff.) P.Kumm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>607494.2253493589</v>
+        <v>607526.3003579092</v>
       </c>
       <c r="R5" t="n">
-        <v>6548689.331522608</v>
+        <v>6548630.034672366</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>gles barrskog</t>
+          <t>blandskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1742574</v>
+        <v>5042702</v>
       </c>
       <c r="B6" t="n">
-        <v>90673</v>
+        <v>98519</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,34 +1164,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Valsund, 700 m O om, Srm</t>
+          <t>Vällkärret, 100 m S om, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>607314.5897486788</v>
+        <v>607494.2253493589</v>
       </c>
       <c r="R6" t="n">
-        <v>6548662.16887419</v>
+        <v>6548689.331522608</v>
       </c>
       <c r="S6" t="n">
         <v>100</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>gammal barrskog</t>
+          <t>gles barrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
